--- a/public/spreadsheets/horarios.xlsx
+++ b/public/spreadsheets/horarios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25808"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25924"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Entrada" sheetId="1" r:id="rId1"/>
     <sheet name="INSTRUÇÕES" sheetId="2" r:id="rId2"/>
+    <sheet name="TIPOS POSSÍVEIS DE SALA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -99,12 +100,6 @@
     <t>Bruno</t>
   </si>
   <si>
-    <t>RECURSOS</t>
-  </si>
-  <si>
-    <t>DISPONIBILIDADE</t>
-  </si>
-  <si>
     <t>Mini-auditório</t>
   </si>
   <si>
@@ -162,9 +157,6 @@
     <t>CAMPO</t>
   </si>
   <si>
-    <t>Horários disponíveis da sala. Deve ser no formato: DIAS PRIMEIRA LETRA DO TURNO HORARIOS (sem espaços).</t>
-  </si>
-  <si>
     <t>Compiladores 1</t>
   </si>
   <si>
@@ -183,33 +175,15 @@
     <t>Horário da turma no formato usado no SIGAA</t>
   </si>
   <si>
-    <t xml:space="preserve">23456M123456 </t>
-  </si>
-  <si>
     <t>EXPLICAÇÃO EXEMPLO</t>
   </si>
   <si>
-    <t xml:space="preserve">23456M123456 23456T123456 23456N1234 </t>
-  </si>
-  <si>
-    <t>24T12</t>
-  </si>
-  <si>
-    <t>Segundas e Quartas, nos horários 1 e 2 da tarde</t>
-  </si>
-  <si>
     <t>Ambos os professores em algum momento participarão da disciplina</t>
   </si>
   <si>
     <t>As aulas ocorrerão nas segundas e quartas nos 2 primeiros horários da amanhã</t>
   </si>
   <si>
-    <t>Disponível todos os dias da semana pela manhã, em todos os horário</t>
-  </si>
-  <si>
-    <t>Todos os dias, em todos os horários</t>
-  </si>
-  <si>
     <t>Tipo de sala solicitada. DEVE HAVER AO MENOS UMA SALA DO TIPO NA TABELA DE RECURSOS</t>
   </si>
   <si>
@@ -225,26 +199,32 @@
     <t>Em casos de turmas com mais de uma sala, sempre informar o horário e em seguida o tipo da sala para cada uma das salas necessárias</t>
   </si>
   <si>
-    <t>Podem ser informados infinitos recursos.</t>
-  </si>
-  <si>
     <t>Uma turma só deve ter UMA linha de especificações (código, nome, sigla, alunos, turma e professor. Porém, podem ter infinitas linhas com sugestões</t>
   </si>
   <si>
     <t>SUGESTÕES DE HORÁRIO</t>
   </si>
   <si>
-    <t>Cada nome de tipo de sala informado pode aparecer apenas uma vez na tabela de recursos</t>
-  </si>
-  <si>
-    <t>As salas sem tipo serão consideradas do tipo superior mais próximo</t>
+    <t>TIPO DE SALA</t>
+  </si>
+  <si>
+    <t>Sala de Aula - Cadeira de Braço</t>
+  </si>
+  <si>
+    <t>Sala de Aula - Mesas</t>
+  </si>
+  <si>
+    <t>Laboratório de Aula</t>
+  </si>
+  <si>
+    <t>Laboratório de Estudos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +256,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,12 +274,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -367,17 +348,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -446,23 +416,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -472,21 +428,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -496,19 +443,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,32 +464,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -843,398 +800,412 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
-    <col min="9" max="9" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.1640625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="22">
         <v>40</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="22">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
+      <c r="H7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="22">
+        <v>20</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
+      <c r="H11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
+      <c r="C12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22">
+        <v>20</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>25</v>
+      <c r="N13" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:N1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'TIPOS POSSÍVEIS DE SALA'!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1 H3:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1246,239 +1217,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8">
-        <v>40</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A12:A13"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/spreadsheets/horarios.xlsx
+++ b/public/spreadsheets/horarios.xlsx
@@ -434,42 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -489,6 +453,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,8 +465,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -800,382 +800,382 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="21" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="34.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.1640625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.1640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="10">
         <v>40</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="10">
         <v>20</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="10">
         <v>20</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1239,12 +1239,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1295,10 +1295,10 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1307,8 +1307,8 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1345,39 +1345,39 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1397,32 +1397,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
     </row>
